--- a/StructureDefinition-be-lm-medicationdispense.xlsx
+++ b/StructureDefinition-be-lm-medicationdispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
